--- a/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_g1.xlsx
+++ b/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6BD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13BDF0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B990&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B920&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B8B0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B5A0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B530&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B450&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B3E0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B370&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B300&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B290&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B220&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B1B0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B140&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6B060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B0D0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6AF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AF80&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6AEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AF10&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6AE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AEA0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6ADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AE30&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6AC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13ACE0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6AC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AC70&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6AB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AC00&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6AB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AB90&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6AAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AB20&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6AA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AAB0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AA40&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A9D0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A960&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A8F0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A7A0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A730&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A6C0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A650&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A5E0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A570&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A500&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A490&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A420&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A3B0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A340&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A2D0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A260&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A1F0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A180&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A110&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD6A030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A0A0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD69F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139FC0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD69EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139F50&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD69E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139E70&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD69D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139E00&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">

--- a/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_g1.xlsx
+++ b/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_g1.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL540357</t>
+          <t>CHEMBL162621</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1cc(C2=C(Nc3ccccc3)C(=O)NC2=O)c2ccccc21</t>
+          <t>N#CC1=C(c2c(-c3cc4ccccc4s3)n(CCCSC(=N)N)c3ccccc23)C(=O)NC1=O</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1cc(C2=C(Nc3ccccc3)C(=O)NC2=O)c2ccccc21</t>
+          <t>N#CC1=C(c2c(-c3cc4ccccc4s3)n(CCCSC(=N)N)c3ccccc23)C(=O)NC1=O</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>419.51</v>
+        <v>485.59</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
         <v>4</v>
       </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
       <c r="M2" t="n">
-        <v>113</v>
+        <v>124.76</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13BDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBA650&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL345593</t>
+          <t>CHEMBL540357</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)c1c3c(c4c5ccccc5n(C)c4c1n2CCC#N)C(=O)NC3=O</t>
+          <t>N=C(N)SCCCn1cc(C2=C(Nc3ccccc3)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)c1c3c(c4c5ccccc5n(C)c4c1n2CCC#N)C(=O)NC3=O</t>
+          <t>N=C(N)SCCCn1cc(C2=C(Nc3ccccc3)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>422.44</v>
+        <v>419.51</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
         <v>4</v>
       </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6</v>
-      </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>89.05</v>
+        <v>113</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBA500&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBA730&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CB9930&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CB99A0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CB9A10&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL370493</t>
+          <t>CHEMBL349382</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CC1(C)O[C@@H](n2c3ccccc3c3c4c(c5c6ccccc6[nH]c5c32)CNC4=O)C[C@@]1(O)CO</t>
+          <t>O=C1C=C(c2c(-c3cc4ccccc4s3)n(CCCNC3=NCCN3)c3ccccc23)C(=O)N1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CC1(C)O[C@@H](n2c3ccccc3c3c4c(c5c6ccccc6[nH]c5c32)CNC4=O)C[C@@]1(O)CO</t>
+          <t>O=C1C=C(c2c(-c3cc4ccccc4s3)n(CCCNC3=NCCN3)c3ccccc23)C(=O)N1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>455.51</v>
+        <v>469.57</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>99.51000000000001</v>
+        <v>87.52</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CB9AF0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL1087650</t>
+          <t>CHEMBL370493</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CN1C[C@@H]2C[C@H]1CN2c1ccc(-c2ccnc3c(-c4cccc(O)c4)c(-c4ccncc4)nn23)cc1</t>
+          <t>CC1(C)O[C@@H](n2c3ccccc3c3c4c(c5c6ccccc6[nH]c5c32)CNC4=O)C[C@@]1(O)CO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CN1C[C@@H]2C[C@H]1CN2c1ccc(-c2ccnc3c(-c4cccc(O)c4)c(-c4ccncc4)nn23)cc1</t>
+          <t>CC1(C)O[C@@H](n2c3ccccc3c3c4c(c5c6ccccc6[nH]c5c32)CNC4=O)C[C@@]1(O)CO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>474.57</v>
+        <v>455.51</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>69.79000000000001</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CB9B60&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL120645</t>
+          <t>CHEMBL271403</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CC(C)[C@H]1C(=O)N[C@H](CO)CC2CNc3cccc(c32)N1C</t>
+          <t>CC(C)[C@H]1C(=O)N[C@H](CO)Cc2cn3ncc4ccc(c2c43)N1C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CC(C)[C@H]1C(=O)N[C@H](CO)CC2CNc3cccc(c32)N1C</t>
+          <t>CC(C)[C@H]1C(=O)N[C@H](CO)Cc2cn3ncc4ccc(c2c43)N1C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>303.41</v>
+        <v>326.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -1131,13 +1131,13 @@
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>64.59999999999999</v>
+        <v>69.87</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CB9CB0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL113185</t>
+          <t>CHEMBL1087650</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2nccc(-c3ccc(NCCN)nc3)n2)cc(OC)c1OC</t>
+          <t>CN1C[C@@H]2C[C@H]1CN2c1ccc(-c2ccnc3c(-c4cccc(O)c4)c(-c4ccncc4)nn23)cc1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2nccc(-c3ccc(NCCN)nc3)n2)cc(OC)c1OC</t>
+          <t>CN1C[C@@H]2C[C@H]1CN2c1ccc(-c2ccnc3c(-c4cccc(O)c4)c(-c4ccncc4)nn23)cc1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>396.45</v>
+        <v>474.57</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>116.44</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CB9D90&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL63262</t>
+          <t>CHEMBL120645</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CC(C)[C@H]1/C(S)=N/[C@H](CO)Cc2c[nH]c3cccc(c23)N1C</t>
+          <t>CC(C)[C@H]1C(=O)N[C@H](CO)CC2CNc3cccc(c32)N1C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CC(C)[C@H]1/C(S)=N/[C@H](CO)Cc2c[nH]c3cccc(c23)N1C</t>
+          <t>CC(C)[C@H]1C(=O)N[C@H](CO)CC2CNc3cccc(c32)N1C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>317.46</v>
+        <v>303.41</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -1270,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>51.62</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CB9E00&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL304549</t>
+          <t>CHEMBL113185</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1CCCCC[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>COc1cc(Nc2nccc(-c3ccc(NCCN)nc3)n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1CCCCC[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>COc1cc(Nc2nccc(-c3ccc(NCCN)nc3)n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>549.53</v>
+        <v>396.45</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>190.69</v>
+        <v>116.44</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CB9E70&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL55382</t>
+          <t>CHEMBL63262</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccc(O)cc3c3c4c(c5c6cc(O)ccc6n2c5c31)C(=O)OC4</t>
+          <t>CC(C)[C@H]1/C(S)=N/[C@H](CO)Cc2c[nH]c3cccc(c23)N1C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccc(O)cc3c3c4c(c5c6cc(O)ccc6n2c5c31)C(=O)OC4</t>
+          <t>CC(C)[C@H]1/C(S)=N/[C@H](CO)Cc2c[nH]c3cccc(c23)N1C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>499.52</v>
+        <v>317.46</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>107.11</v>
+        <v>51.62</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBA5E0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL265315</t>
+          <t>CHEMBL422215</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NC(N)=NCCC[C@@H](CCl)NC(=O)[C@@H]1CCCN1C(=O)[C@H](N)Cc1ccccc1</t>
+          <t>CCCCCCCCCCCCC/C=C1\C(=O)O[C@@H](CO)[C@@H]1OC(C)=O</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NC(N)=NCCC[C@@H](CCl)NC(=O)[C@@H]1CCCN1C(=O)[C@H](N)Cc1ccccc1</t>
+          <t>CCCCCCCCCCCCC/C=C1\C(=O)O[C@@H](CO)[C@@H]1OC(C)=O</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>422.96</v>
+        <v>368.51</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>139.83</v>
+        <v>72.83</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBA7A0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL90598</t>
+          <t>CHEMBL304549</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O=Cc1ccc(-c2ccc(-c3ccc(C=O)s3)s2)s1</t>
+          <t>O=C(N[C@@H]1CCCCC[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O=Cc1ccc(-c2ccc(-c3ccc(C=O)s3)s2)s1</t>
+          <t>O=C(N[C@@H]1CCCCC[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>304.42</v>
+        <v>549.53</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
         <v>4</v>
       </c>
-      <c r="K16" t="n">
-        <v>3</v>
-      </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>34.14</v>
+        <v>190.69</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBA810&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL475816</t>
+          <t>CHEMBL55382</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CC(=O)C1=C(O)C=C2Oc3c(C(N)=O)c(O)cc(O)c3[C@]2(C)C1=O</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccc(O)cc3c3c4c(c5c6cc(O)ccc6n2c5c31)C(=O)OC4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CC(=O)C1=C(O)C=C2Oc3c(C(N)=O)c(O)cc(O)c3[C@]2(C)C1=O</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccc(O)cc3c3c4c(c5c6cc(O)ccc6n2c5c31)C(=O)OC4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>331.28</v>
+        <v>499.52</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
@@ -1607,13 +1607,13 @@
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>147.15</v>
+        <v>107.11</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBA880&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL143453</t>
+          <t>CHEMBL89384</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H]1Nc2c3c(cc4[nH]cc(c24)C[C@@H](CO)NC1=O)C(C)(C)CCC3(C)C</t>
+          <t>O=C(NC1CCCC1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2-c2nn[nH]n2)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H]1Nc2c3c(cc4[nH]cc(c24)C[C@@H](CO)NC1=O)C(C)(C)CCC3(C)C</t>
+          <t>O=C(NC1CCCC1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2-c2nn[nH]n2)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>397.56</v>
+        <v>545.51</v>
       </c>
       <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
         <v>4</v>
       </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
       <c r="M18" t="n">
-        <v>77.15000000000001</v>
+        <v>207.85</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBA8F0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL401369</t>
+          <t>CHEMBL91126</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CCCCCCn1cc2c3c(cccc31)N(C)[C@@H](C(C)C)C(=O)N[C@H](CO)CC2</t>
+          <t>O=C(NC1CNCC1OC(=O)c1cc(O)c(C(=O)c2c(O)ccc3c2CCCC3)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CCCCCCn1cc2c3c(cccc31)N(C)[C@@H](C(C)C)C(=O)N[C@H](CO)CC2</t>
+          <t>O=C(NC1CNCC1OC(=O)c1cc(O)c(C(=O)c2c(O)ccc3c2CCCC3)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>399.58</v>
+        <v>532.55</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>57.5</v>
+        <v>165.42</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBA960&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL13259</t>
+          <t>CHEMBL265315</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCC(=O)OC[C@H](CO)OC(C)=O</t>
+          <t>NC(N)=NCCC[C@@H](CCl)NC(=O)[C@@H]1CCCN1C(=O)[C@H](N)Cc1ccccc1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCC(=O)OC[C@H](CO)OC(C)=O</t>
+          <t>NC(N)=NCCC[C@@H](CCl)NC(=O)[C@@H]1CCCN1C(=O)[C@H](N)Cc1ccccc1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>344.49</v>
+        <v>422.96</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>72.83</v>
+        <v>139.83</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBA9D0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL284436</t>
+          <t>CHEMBL90598</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>N=C(N)NCCC[C@@H](CCl)NC(=O)[C@@H]1CCN2CC[C@@](N)(Cc3ccccc3)CN12</t>
+          <t>O=Cc1ccc(-c2ccc(-c3ccc(C=O)s3)s2)s1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>N=C(N)NCCC[C@@H](CCl)NC(=O)[C@@H]1CCN2CC[C@@](N)(Cc3ccccc3)CN12</t>
+          <t>O=Cc1ccc(-c2ccc(-c3ccc(C=O)s3)s2)s1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>436</v>
+        <v>304.42</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>123.5</v>
+        <v>34.14</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13ACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAA40&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL103091</t>
+          <t>CHEMBL475816</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCc1cccc2c1C[C@@H](CO)OC(=O)[C@H](C(C)C)N2C</t>
+          <t>CC(=O)C1=C(O)C=C2Oc3c(C(N)=O)c(O)cc(O)c3[C@]2(C)C1=O</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCc1cccc2c1C[C@@H](CO)OC(=O)[C@H](C(C)C)N2C</t>
+          <t>CC(=O)C1=C(O)C=C2Oc3c(C(N)=O)c(O)cc(O)c3[C@]2(C)C1=O</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>403.61</v>
+        <v>331.28</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>49.77</v>
+        <v>147.15</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAAB0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL12988</t>
+          <t>CHEMBL143453</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCC[C@H]1C(=O)O[C@@H](CO)[C@@H]1OC(C)=O</t>
+          <t>CC(C)[C@@H]1Nc2c3c(cc4[nH]cc(c24)C[C@@H](CO)NC1=O)C(C)(C)CCC3(C)C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCC[C@H]1C(=O)O[C@@H](CO)[C@@H]1OC(C)=O</t>
+          <t>CC(C)[C@@H]1Nc2c3c(cc4[nH]cc(c24)C[C@@H](CO)NC1=O)C(C)(C)CCC3(C)C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>370.53</v>
+        <v>397.56</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>72.83</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAB20&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL475609</t>
+          <t>CHEMBL401369</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2nc(N[C@H]3CCCC[C@H]3N)n3cnnc3c2C(N)=O)cc(OC)c1</t>
+          <t>CCCCCCn1cc2c3c(cccc31)N(C)[C@@H](C(C)C)C(=O)N[C@H](CO)CC2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2nc(N[C@H]3CCCC[C@H]3N)n3cnnc3c2C(N)=O)cc(OC)c1</t>
+          <t>CCCCCCn1cc2c3c(cccc31)N(C)[C@@H](C(C)C)C(=O)N[C@H](CO)CC2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>426.48</v>
+        <v>399.58</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>7</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>154.71</v>
+        <v>57.5</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAB90&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL81130</t>
+          <t>CHEMBL13259</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COc1ccc(C2=NOC(=O)/C2=C\c2cccs2)cc1</t>
+          <t>CCCCCCCCCCCCCC(=O)OC[C@H](CO)OC(C)=O</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>COc1ccc(C2=NOC(=O)/C2=C\c2cccs2)cc1</t>
+          <t>CCCCCCCCCCCCCC(=O)OC[C@H](CO)OC(C)=O</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>285.32</v>
+        <v>344.49</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>16</v>
+      </c>
+      <c r="K25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>47.89</v>
+        <v>72.83</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAC00&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL86680</t>
+          <t>CHEMBL284436</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O=C(NC1CNCCC[C@H]1OC(=O)c1cc(O)c(C2OC(=O)c3cccc(O)c32)c(O)c1)c1ccc(O)cc1</t>
+          <t>N=C(N)NCCC[C@@H](CCl)NC(=O)[C@@H]1CCN2CC[C@@](N)(Cc3ccccc3)CN12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>O=C(NC1CNCCC[C@H]1OC(=O)c1cc(O)c(C2OC(=O)c3cccc(O)c32)c(O)c1)c1ccc(O)cc1</t>
+          <t>N=C(N)NCCC[C@@H](CCl)NC(=O)[C@@H]1CCN2CC[C@@](N)(Cc3ccccc3)CN12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>534.52</v>
+        <v>436</v>
       </c>
       <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
         <v>6</v>
       </c>
-      <c r="I26" t="n">
-        <v>10</v>
-      </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>174.65</v>
+        <v>123.5</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAC70&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL80658</t>
+          <t>CHEMBL103091</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>O=C1ON=C(c2ccccc2)/C1=C/c1ccco1</t>
+          <t>CCCCCCCCCCc1cccc2c1C[C@@H](CO)OC(=O)[C@H](C(C)C)N2C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O=C1ON=C(c2ccccc2)/C1=C/c1ccco1</t>
+          <t>CCCCCCCCCCc1cccc2c1C[C@@H](CO)OC(=O)[C@H](C(C)C)N2C</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>239.23</v>
+        <v>403.61</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
+        <v>11</v>
+      </c>
+      <c r="K27" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>3</v>
-      </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>51.8</v>
+        <v>49.77</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBACE0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL285801</t>
+          <t>CHEMBL368720</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,44 +2324,44 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CCCCCCCCc1ccc2c3c(c[nH]c13)C[C@@H](CO)NC(=O)[C@H](C(C)C)N2C</t>
+          <t>CCCCCCCCCCCC(=O)Oc1ccc2c(c1)[C@](C)(C(C)C)[C@H]1C(=O)N[C@H](CO)[C@@H]21</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CCCCCCCCc1ccc2c3c(c[nH]c13)C[C@@H](CO)NC(=O)[C@H](C(C)C)N2C</t>
+          <t>CCCCCCCCCCCC(=O)Oc1ccc2c(c1)[C@](C)(C(C)C)[C@H]1C(=O)N[C@H](CO)[C@@H]21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>413.61</v>
+        <v>457.66</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K28" t="n">
         <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>68.36</v>
+        <v>75.63</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAD50&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL26872</t>
+          <t>CHEMBL12988</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,44 +2392,44 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>O=C1NCc2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CSC3</t>
+          <t>CCCCCCCCCCCCCC[C@H]1C(=O)O[C@@H](CO)[C@@H]1OC(C)=O</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O=C1NCc2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CSC3</t>
+          <t>CCCCCCCCCCCCCC[C@H]1C(=O)O[C@@H](CO)[C@@H]1OC(C)=O</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>369.45</v>
+        <v>370.53</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
+        <v>15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" t="n">
-        <v>7</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5</v>
-      </c>
       <c r="M29" t="n">
-        <v>38.96</v>
+        <v>72.83</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBADC0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL337026</t>
+          <t>CHEMBL475609</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,44 +2460,44 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CN[C@H]1C[C@@H]2O[C@](C)([C@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4=O</t>
+          <t>COc1cc(Nc2nc(N[C@H]3CCCC[C@H]3N)n3cnnc3c2C(N)=O)cc(OC)c1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CN[C@H]1C[C@@H]2O[C@](C)([C@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4=O</t>
+          <t>COc1cc(Nc2nc(N[C@H]3CCCC[C@H]3N)n3cnnc3c2C(N)=O)cc(OC)c1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>480.52</v>
+        <v>426.48</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>86.52</v>
+        <v>154.71</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAE30&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL284632</t>
+          <t>CHEMBL81130</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,44 +2528,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1COC3</t>
+          <t>COc1ccc(C2=NOC(=O)/C2=C\c2cccs2)cc1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1COC3</t>
+          <t>COc1ccc(C2=NOC(=O)/C2=C\c2cccs2)cc1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>367.36</v>
+        <v>285.32</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>65.26000000000001</v>
+        <v>47.89</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAEA0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL386636</t>
+          <t>CHEMBL86680</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,44 +2596,44 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c(c3[nH]c4ccccc4c23)CCc2ccccc2-1</t>
+          <t>O=C(NC1CNCCC[C@H]1OC(=O)c1cc(O)c(C2OC(=O)c3cccc(O)c32)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c(c3[nH]c4ccccc4c23)CCc2ccccc2-1</t>
+          <t>O=C(NC1CNCCC[C@H]1OC(=O)c1cc(O)c(C2OC(=O)c3cccc(O)c32)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>338.37</v>
+        <v>534.52</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>61.96</v>
+        <v>174.65</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAF10&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL54209</t>
+          <t>CHEMBL80658</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,44 +2664,44 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cc1cccc(C2=C(c3cn(C)c4ccccc34)C(=O)NC2=O)c1</t>
+          <t>O=C1ON=C(c2ccccc2)/C1=C/c1ccco1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cc1cccc(C2=C(c3cn(C)c4ccccc34)C(=O)NC2=O)c1</t>
+          <t>O=C1ON=C(c2ccccc2)/C1=C/c1ccco1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>316.36</v>
+        <v>239.23</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
         <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>51.1</v>
+        <v>51.8</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAF80&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL1084411</t>
+          <t>CHEMBL285801</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(CN3CCN(C)CC3)n2)ccc2[nH]ccc12</t>
+          <t>CCCCCCCCc1ccc2c3c(c[nH]c13)C[C@@H](CO)NC(=O)[C@H](C(C)C)N2C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(CN3CCN(C)CC3)n2)ccc2[nH]ccc12</t>
+          <t>CCCCCCCCc1ccc2c3c(c[nH]c13)C[C@@H](CO)NC(=O)[C@H](C(C)C)N2C</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>463.59</v>
+        <v>413.61</v>
       </c>
       <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
         <v>2</v>
       </c>
-      <c r="I34" t="n">
-        <v>6</v>
-      </c>
-      <c r="J34" t="n">
-        <v>6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4</v>
-      </c>
       <c r="M34" t="n">
-        <v>83.87</v>
+        <v>68.36</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBAFF0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL431432</t>
+          <t>CHEMBL291126</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CN1CCCC1CCNC(=O)CCn1c2ccccc2c2c3c(c4c5ccccc5[nH]c4c21)C(=O)NC3</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@@H]1O[C@H]3C[C@@H]1CO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CN1CCCC1CCNC(=O)CCn1c2ccccc2c2c3c(c4c5ccccc5[nH]c4c21)C(=O)NC3</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@@H]1O[C@H]3C[C@@H]1CO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>493.61</v>
+        <v>423.43</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>82.16</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB060&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL489520</t>
+          <t>CHEMBL302449</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CC(C)=C1CC(CO)(COC(=O)CCCOc2ccc(C#Cc3ccc(C)cc3)cc2)OC1=O</t>
+          <t>Cn1c2ccccc2c2c3c(c4c5ccccc5n(CCC#N)c4c21)CNC3=O</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CC(C)=C1CC(CO)(COC(=O)CCCOc2ccc(C#Cc3ccc(C)cc3)cc2)OC1=O</t>
+          <t>Cn1c2ccccc2c2c3c(c4c5ccccc5n(CCC#N)c4c21)CNC3=O</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2883,29 +2883,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>462.54</v>
+        <v>378.44</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
         <v>6</v>
       </c>
-      <c r="J36" t="n">
-        <v>8</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3</v>
-      </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>82.06</v>
+        <v>62.75</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB0D0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL319265</t>
+          <t>CHEMBL26872</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CN1CCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
+          <t>O=C1NCc2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CSC3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CN1CCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
+          <t>O=C1NCc2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CSC3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2951,29 +2951,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>467.57</v>
+        <v>369.45</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>62.51</v>
+        <v>38.96</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB140&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL430694</t>
+          <t>CHEMBL55394</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cn(CCCO)c3ncccc23)=C1c1cccc2ccccc12</t>
+          <t>Cn1cc(C2=C(c3cn(C4CCN(CC5CC5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cn(CCCO)c3ncccc23)=C1c1cccc2ccccc12</t>
+          <t>Cn1cc(C2=C(c3cn(C4CCN(CC5CC5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3019,66 +3019,40 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>397.43</v>
+        <v>478.6</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
         <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>84.22</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>270</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>CHEMBL759475</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Inhibitory concentration against human protein kinase C-betaII using histone as substrate</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>59.27</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB1B0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3090,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL4128457</t>
+          <t>CHEMBL284632</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3098,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C[C@@H]1CC(=O)Nc2ncnc(N3CCC(c4nc(-c5ccc(F)c(C(F)(F)F)c5)cn4CCN4CCCC4)CC3)c21</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1COC3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C[C@@H]1CC(=O)Nc2ncnc(N3CCC(c4nc(-c5ccc(F)c(C(F)(F)F)c5)cn4CCN4CCCC4)CC3)c21</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1COC3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3113,66 +3087,40 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>571.62</v>
+        <v>367.36</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>79.18000000000001</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>36</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>CHEMBL4121777</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Inhibition of human PKCbeta2 measured at apparent ATP Km level</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>65.26000000000001</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB220&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3184,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL4102228</t>
+          <t>CHEMBL316918</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3192,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CN(C)Cc1ccc2ccc(Cl)c(C3=C(c4c[nH]c5ccccc45)C(=O)NC3=O)c2c1</t>
+          <t>Cn1cc(C2=C(c3c4n(c5ccccc35)CC(CN)C4)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CN(C)Cc1ccc2ccc(Cl)c(C3=C(c4c[nH]c5ccccc45)C(=O)NC3=O)c2c1</t>
+          <t>Cn1cc(C2=C(c3c4n(c5ccccc35)CC(CN)C4)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3207,11 +3155,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>429.91</v>
+        <v>410.48</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
@@ -3220,53 +3168,27 @@
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>CHEMBL4004541</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta1 (unknown origin) after 60 mins in presence of [gamma33P]ATP by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>82.05</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB290&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3278,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL362558</t>
+          <t>CHEMBL148745</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3286,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cnc3ccccn23)=C1c1cn2c3c(cc(F)cc13)CN(C(=O)N1CCCCC1)CC2</t>
+          <t>CC(CCc1ccc(O)cc1)OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cnc3ccccn23)=C1c1cn2c3c(cc(F)cc13)CN(C(=O)N1CCCCC1)CC2</t>
+          <t>CC(CCc1ccc(O)cc1)OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3301,66 +3223,40 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>512.55</v>
+        <v>466.44</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>91.95</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>420</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>CHEMBL829308</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Inhibition of human Protein kinase C beta 2</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>161.59</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB300&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3372,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL2147538</t>
+          <t>CHEMBL146564</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3380,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CC(C)(N)CNc1nc(-c2ccncc2)cc2cnccc12</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@H]1COC[C@@H]3N1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CC(C)(N)CNc1nc(-c2ccncc2)cc2cnccc12</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@@H]1COC[C@H]3N1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3395,66 +3291,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>293.37</v>
+        <v>408.42</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8</v>
+      </c>
+      <c r="L42" t="n">
         <v>5</v>
       </c>
-      <c r="J42" t="n">
-        <v>4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3</v>
-      </c>
       <c r="M42" t="n">
-        <v>76.72</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>942</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>CHEMBL2150521</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human PKCbeta1 assessed as [33P]-ATP incorporation into tridecapeptide substrate after 60 mins by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>77.29000000000001</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB370&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3466,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL350335</t>
+          <t>CHEMBL350059</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3474,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1c(-c2cc3ccccc3s2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
+          <t>N=C(N)SCCCn1c(-c2cccc3ccccc23)c(C2=CC(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1c(-c2cc3ccccc3s2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
+          <t>N=C(N)SCCCn1c(-c2cccc3ccccc23)c(C2=CC(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3489,11 +3359,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>460.58</v>
+        <v>454.56</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
@@ -3513,42 +3383,16 @@
       <c r="M43" t="n">
         <v>100.97</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL761751</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of protein kinase C beta</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB3E0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3560,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL388978</t>
+          <t>CHEMBL386636</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3568,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CN[C@@H]1C[C@H]2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>O=C1NC(=O)c2c1c1c(c3[nH]c4ccccc4c23)CCc2ccccc2-1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CN[C@@H]1C[C@H]2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>O=C1NC(=O)c2c1c1c(c3[nH]c4ccccc4c23)CCc2ccccc2-1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3583,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>466.54</v>
+        <v>338.37</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" t="n">
         <v>4</v>
       </c>
-      <c r="J44" t="n">
-        <v>2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>8</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5</v>
-      </c>
       <c r="M44" t="n">
-        <v>69.45</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL768280</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Inhibition of Protein kinase C beta 2</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>61.96</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB450&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3654,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL2046643</t>
+          <t>CHEMBL326688</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3662,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CC(C)C[C@H]1CN(c2ccc(C(F)(F)F)c(C(=O)c3cccnc3N)n2)CCN1</t>
+          <t>CN(C)CCCn1cc(C2=C(c3cccc4ccccc34)C(=O)NC2=O)c2cccnc21</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CC(C)C[C@H]1CN(c2ccc(C(F)(F)F)c(C(=O)c3cccnc3N)n2)CCN1</t>
+          <t>CN(C)CCCn1cc(C2=C(c3cccc4ccccc34)C(=O)NC2=O)c2cccnc21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3677,66 +3495,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>407.44</v>
+        <v>424.5</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
         <v>6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>5</v>
       </c>
-      <c r="K45" t="n">
-        <v>3</v>
-      </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>84.14</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>260</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL2049856</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>67.23</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB4C0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3748,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL440201</t>
+          <t>CHEMBL186290</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3756,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CCCCCCCCC#Cc1ccc2c(c1)[C@](C)(C(C)C)[C@H]1C(=O)N[C@H](CO)[C@@H]21</t>
+          <t>Cc1cc2c3c(c1)c(C1=C(c4cnc5ccccn45)C(=O)NC1=O)cn3CCN(C(=O)N1CCCCC1)C2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CCCCCCCCC#Cc1ccc2c(c1)[C@](C)(C(C)C)[C@H]1C(=O)N[C@H](CO)[C@@H]21</t>
+          <t>Cc1cc2c3c(c1)c(C1=C(c4cnc5ccccn45)C(=O)NC1=O)cn3CCN(C(=O)N1CCCCC1)C2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3771,66 +3563,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>395.59</v>
+        <v>508.58</v>
       </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
         <v>2</v>
       </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>8</v>
-      </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>49.33</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>701</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL823901</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Inhibition of [3H]-phorbol 12,13-dibutyrate (PDBu) binding to human recombinant protein kinase C beta</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>91.95</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB530&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3842,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL3901971</t>
+          <t>CHEMBL434415</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3850,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CC1c2[nH]nc(NC(=O)c3ccccc3)c2CN1C(=O)N1CCN(C)C[C@@H]1Cc1ccccc1</t>
+          <t>CO[C@H]1[C@@H](N(C)c2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CC1c2[nH]nc(NC(=O)c3ccccc3)c2CN1C(=O)N1CCN(C)C[C@@H]1Cc1ccccc1</t>
+          <t>CO[C@H]1[C@@H](N(C)c2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3865,66 +3631,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>458.57</v>
+        <v>542.64</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>189</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>60.66</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB5A0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3936,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL3662782</t>
+          <t>CHEMBL1084411</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3944,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CC[C@H]1CN2CCC[C@H]2CN1C(=O)N1Cc2c(NC(=O)c3ccccn3)n[nH]c2C1(C)C</t>
+          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(CN3CCN(C)CC3)n2)ccc2[nH]ccc12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CC[C@H]1CN2CCC[C@H]2CN1C(=O)N1Cc2c(NC(=O)c3ccccn3)n[nH]c2C1(C)C</t>
+          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(CN3CCN(C)CC3)n2)ccc2[nH]ccc12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3959,66 +3699,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>437.55</v>
+        <v>463.59</v>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K48" t="n">
         <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>97.45999999999999</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.87</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB610&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4030,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL3667490</t>
+          <t>CHEMBL431432</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4038,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cc1noc(C)c1CC(=O)Nc1n[nH]c2c1CN(C(=O)N1C[C@@H](C)N(CC3CCOCC3)C[C@@H]1C)C2(C)C</t>
+          <t>CN1CCCC1CCNC(=O)CCn1c2ccccc2c2c3c(c4c5ccccc5[nH]c4c21)C(=O)NC3</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cc1noc(C)c1CC(=O)Nc1n[nH]c2c1CN(C(=O)N1C[C@@H](C)N(CC3CCOCC3)C[C@@H]1C)C2(C)C</t>
+          <t>CN1CCCC1CCNC(=O)CCn1c2ccccc2c2c3c(c4c5ccccc5[nH]c4c21)C(=O)NC3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4053,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>527.67</v>
+        <v>493.61</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6</v>
+      </c>
+      <c r="K49" t="n">
         <v>7</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>5</v>
       </c>
-      <c r="K49" t="n">
-        <v>5</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2</v>
-      </c>
       <c r="M49" t="n">
-        <v>119.83</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>20</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>82.16</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB680&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4124,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL3662872</t>
+          <t>CHEMBL103055</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4132,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CN1CCC(F)(C(=O)N2Cc3c(NC(=O)c4ccc(Cl)c(Cl)c4)n[nH]c3C2(C)C)CC1</t>
+          <t>CCN1CCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCC1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CN1CCC(F)(C(=O)N2Cc3c(NC(=O)c4ccc(Cl)c(Cl)c4)n[nH]c3C2(C)C)CC1</t>
+          <t>CCN1CCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCC1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4147,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>468.36</v>
+        <v>512.61</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>6</v>
+      </c>
+      <c r="L50" t="n">
         <v>4</v>
       </c>
-      <c r="J50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
       <c r="M50" t="n">
-        <v>81.33</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>77.73</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB6F0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4218,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL27768</t>
+          <t>CHEMBL489520</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4226,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CCCC(=O)O[C@@H]1[C@@H](C)[C@@]2(O)[C@@H](C=C(CO)C[C@]3(O)C(=O)C(C)=C[C@@H]23)[C@@H]2C(C)(C)[C@]12OC(=O)CCC</t>
+          <t>CC(C)=C1CC(CO)(COC(=O)CCCOc2ccc(C#Cc3ccc(C)cc3)cc2)OC1=O</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CCCC(=O)O[C@@H]1[C@@H](C)[C@@]2(O)[C@@H](C=C(CO)C[C@]3(O)C(=O)C(C)=C[C@@H]23)[C@@H]2C(C)(C)[C@]12OC(=O)CCC</t>
+          <t>CC(C)=C1CC(CO)(COC(=O)CCCOc2ccc(C#Cc3ccc(C)cc3)cc2)OC1=O</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4241,66 +3903,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>504.62</v>
+        <v>462.54</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
+        <v>6</v>
+      </c>
+      <c r="J51" t="n">
         <v>8</v>
       </c>
-      <c r="J51" t="n">
-        <v>7</v>
-      </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>130.36</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL768283</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Displacement of 3[H]PDBu from Protein kinase C beta C1a domain</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>82.06</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8CBB760&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
